--- a/需求响应/data/DistributionNetwork3/Taxi.xlsx
+++ b/需求响应/data/DistributionNetwork3/Taxi.xlsx
@@ -497,31 +497,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B2" t="n">
         <v>24</v>
       </c>
       <c r="C2" t="n">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D2" t="n">
         <v>0.6</v>
       </c>
       <c r="E2" t="n">
-        <v>42.6</v>
+        <v>39.5</v>
       </c>
       <c r="F2" t="n">
         <v>0.2</v>
       </c>
       <c r="G2" t="n">
-        <v>52.6</v>
+        <v>51.7</v>
       </c>
       <c r="H2" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="I2" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
         <v>0.9</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B3" t="n">
         <v>23</v>
@@ -544,22 +544,22 @@
         <v>83</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E3" t="n">
-        <v>40.1</v>
+        <v>39.5</v>
       </c>
       <c r="F3" t="n">
         <v>0.1</v>
       </c>
       <c r="G3" t="n">
-        <v>51.3</v>
+        <v>52.2</v>
       </c>
       <c r="H3" t="n">
-        <v>19.9</v>
+        <v>19.1</v>
       </c>
       <c r="I3" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J3" t="n">
         <v>0.9</v>
@@ -573,31 +573,31 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D4" t="n">
         <v>0.6</v>
       </c>
       <c r="E4" t="n">
-        <v>42.7</v>
+        <v>38.7</v>
       </c>
       <c r="F4" t="n">
         <v>0.1</v>
       </c>
       <c r="G4" t="n">
-        <v>51.4</v>
+        <v>52</v>
       </c>
       <c r="H4" t="n">
-        <v>19.6</v>
+        <v>19.3</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J4" t="n">
         <v>0.9</v>
@@ -611,31 +611,31 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B5" t="n">
         <v>24</v>
       </c>
       <c r="C5" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E5" t="n">
-        <v>41.4</v>
+        <v>39.8</v>
       </c>
       <c r="F5" t="n">
         <v>0.2</v>
       </c>
       <c r="G5" t="n">
-        <v>50.9</v>
+        <v>51.8</v>
       </c>
       <c r="H5" t="n">
-        <v>19</v>
+        <v>19.9</v>
       </c>
       <c r="I5" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
         <v>0.9</v>
@@ -649,31 +649,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B6" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" t="n">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D6" t="n">
         <v>0.6</v>
       </c>
       <c r="E6" t="n">
-        <v>38.2</v>
+        <v>40.1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G6" t="n">
-        <v>53.8</v>
+        <v>50.2</v>
       </c>
       <c r="H6" t="n">
-        <v>20.2</v>
+        <v>20.4</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J6" t="n">
         <v>0.8</v>
@@ -690,28 +690,28 @@
         <v>61</v>
       </c>
       <c r="B7" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E7" t="n">
-        <v>39.5</v>
+        <v>38</v>
       </c>
       <c r="F7" t="n">
         <v>0.2</v>
       </c>
       <c r="G7" t="n">
-        <v>52.9</v>
+        <v>50.3</v>
       </c>
       <c r="H7" t="n">
-        <v>19.4</v>
+        <v>20.3</v>
       </c>
       <c r="I7" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J7" t="n">
         <v>0.8</v>
@@ -725,10 +725,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="n">
         <v>81</v>
@@ -737,22 +737,22 @@
         <v>0.6</v>
       </c>
       <c r="E8" t="n">
-        <v>39.8</v>
+        <v>40.9</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G8" t="n">
         <v>51.2</v>
       </c>
       <c r="H8" t="n">
-        <v>20.3</v>
+        <v>20</v>
       </c>
       <c r="I8" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K8" t="n">
         <v>0.4</v>
@@ -763,31 +763,31 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B9" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E9" t="n">
-        <v>43.1</v>
+        <v>35.6</v>
       </c>
       <c r="F9" t="n">
         <v>0.1</v>
       </c>
       <c r="G9" t="n">
-        <v>51.7</v>
+        <v>51.1</v>
       </c>
       <c r="H9" t="n">
-        <v>20.9</v>
+        <v>19.8</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J9" t="n">
         <v>0.9</v>
@@ -801,10 +801,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="n">
         <v>83</v>
@@ -813,19 +813,19 @@
         <v>0.7</v>
       </c>
       <c r="E10" t="n">
-        <v>42.4</v>
+        <v>38.8</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G10" t="n">
-        <v>52.9</v>
+        <v>52.6</v>
       </c>
       <c r="H10" t="n">
-        <v>19.3</v>
+        <v>20.7</v>
       </c>
       <c r="I10" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J10" t="n">
         <v>0.8</v>
@@ -839,31 +839,31 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B11" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="n">
         <v>82</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="E11" t="n">
-        <v>38.9</v>
+        <v>40.3</v>
       </c>
       <c r="F11" t="n">
         <v>0.2</v>
       </c>
       <c r="G11" t="n">
-        <v>53.6</v>
+        <v>51.3</v>
       </c>
       <c r="H11" t="n">
-        <v>18.9</v>
+        <v>20.8</v>
       </c>
       <c r="I11" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
         <v>0.8</v>
@@ -877,34 +877,34 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B12" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D12" t="n">
         <v>0.5</v>
       </c>
       <c r="E12" t="n">
-        <v>41.6</v>
+        <v>39.5</v>
       </c>
       <c r="F12" t="n">
         <v>0.2</v>
       </c>
       <c r="G12" t="n">
-        <v>52</v>
+        <v>51.1</v>
       </c>
       <c r="H12" t="n">
-        <v>19.6</v>
+        <v>18.5</v>
       </c>
       <c r="I12" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K12" t="n">
         <v>0.4</v>
@@ -915,34 +915,34 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B13" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" t="n">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E13" t="n">
-        <v>39.6</v>
+        <v>36.3</v>
       </c>
       <c r="F13" t="n">
         <v>0.1</v>
       </c>
       <c r="G13" t="n">
-        <v>50.7</v>
+        <v>50.3</v>
       </c>
       <c r="H13" t="n">
-        <v>19.9</v>
+        <v>21.3</v>
       </c>
       <c r="I13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J13" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K13" t="n">
         <v>0.4</v>
@@ -953,34 +953,34 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B14" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E14" t="n">
-        <v>41</v>
+        <v>38.6</v>
       </c>
       <c r="F14" t="n">
         <v>0.1</v>
       </c>
       <c r="G14" t="n">
-        <v>50.5</v>
+        <v>53.1</v>
       </c>
       <c r="H14" t="n">
-        <v>18.5</v>
+        <v>19.6</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J14" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K14" t="n">
         <v>0.4</v>
@@ -991,31 +991,31 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E15" t="n">
-        <v>39.1</v>
+        <v>39.9</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G15" t="n">
-        <v>51</v>
+        <v>50.8</v>
       </c>
       <c r="H15" t="n">
-        <v>20.9</v>
+        <v>20.4</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J15" t="n">
         <v>0.9</v>
@@ -1029,31 +1029,31 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B16" t="n">
         <v>23</v>
       </c>
       <c r="C16" t="n">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D16" t="n">
         <v>0.6</v>
       </c>
       <c r="E16" t="n">
-        <v>39.1</v>
+        <v>39</v>
       </c>
       <c r="F16" t="n">
         <v>0.2</v>
       </c>
       <c r="G16" t="n">
-        <v>52.5</v>
+        <v>48.7</v>
       </c>
       <c r="H16" t="n">
-        <v>18.1</v>
+        <v>21</v>
       </c>
       <c r="I16" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
         <v>0.8</v>
@@ -1067,34 +1067,34 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B17" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C17" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E17" t="n">
-        <v>38.5</v>
+        <v>42.1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G17" t="n">
-        <v>51.4</v>
+        <v>50.8</v>
       </c>
       <c r="H17" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="I17" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J17" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K17" t="n">
         <v>0.4</v>
@@ -1105,34 +1105,34 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B18" t="n">
         <v>23</v>
       </c>
       <c r="C18" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D18" t="n">
         <v>0.6</v>
       </c>
       <c r="E18" t="n">
-        <v>38</v>
+        <v>39.3</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G18" t="n">
-        <v>51.9</v>
+        <v>50.9</v>
       </c>
       <c r="H18" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="I18" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J18" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K18" t="n">
         <v>0.4</v>
@@ -1146,28 +1146,28 @@
         <v>62</v>
       </c>
       <c r="B19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C19" t="n">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D19" t="n">
         <v>0.6</v>
       </c>
       <c r="E19" t="n">
-        <v>43</v>
+        <v>41.6</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G19" t="n">
-        <v>51.5</v>
+        <v>51.1</v>
       </c>
       <c r="H19" t="n">
-        <v>19.7</v>
+        <v>18.5</v>
       </c>
       <c r="I19" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J19" t="n">
         <v>0.9</v>
@@ -1181,16 +1181,16 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C20" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E20" t="n">
         <v>40.1</v>
@@ -1199,16 +1199,16 @@
         <v>0.2</v>
       </c>
       <c r="G20" t="n">
-        <v>52.1</v>
+        <v>50.3</v>
       </c>
       <c r="H20" t="n">
-        <v>19.4</v>
+        <v>18.4</v>
       </c>
       <c r="I20" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K20" t="n">
         <v>0.4</v>
@@ -1219,31 +1219,31 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C21" t="n">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E21" t="n">
-        <v>38.5</v>
+        <v>38</v>
       </c>
       <c r="F21" t="n">
         <v>0.1</v>
       </c>
       <c r="G21" t="n">
-        <v>52</v>
+        <v>53.6</v>
       </c>
       <c r="H21" t="n">
-        <v>18.9</v>
+        <v>19.6</v>
       </c>
       <c r="I21" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J21" t="n">
         <v>0.9</v>
@@ -1257,34 +1257,34 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B22" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C22" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D22" t="n">
         <v>0.6</v>
       </c>
       <c r="E22" t="n">
-        <v>39.4</v>
+        <v>39.5</v>
       </c>
       <c r="F22" t="n">
         <v>0.2</v>
       </c>
       <c r="G22" t="n">
-        <v>50.6</v>
+        <v>50.8</v>
       </c>
       <c r="H22" t="n">
-        <v>19.7</v>
+        <v>21.7</v>
       </c>
       <c r="I22" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K22" t="n">
         <v>0.4</v>
@@ -1295,34 +1295,34 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B23" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C23" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D23" t="n">
         <v>0.7</v>
       </c>
       <c r="E23" t="n">
-        <v>42.9</v>
+        <v>37.5</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G23" t="n">
-        <v>52.4</v>
+        <v>50.8</v>
       </c>
       <c r="H23" t="n">
-        <v>21.2</v>
+        <v>19.5</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K23" t="n">
         <v>0.4</v>
@@ -1339,22 +1339,22 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D24" t="n">
         <v>0.6</v>
       </c>
       <c r="E24" t="n">
-        <v>41.1</v>
+        <v>38.9</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G24" t="n">
-        <v>53.4</v>
+        <v>51.9</v>
       </c>
       <c r="H24" t="n">
-        <v>18.1</v>
+        <v>18.6</v>
       </c>
       <c r="I24" t="n">
         <v>2</v>
@@ -1377,25 +1377,25 @@
         <v>25</v>
       </c>
       <c r="C25" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D25" t="n">
         <v>0.6</v>
       </c>
       <c r="E25" t="n">
-        <v>37.8</v>
+        <v>39.3</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G25" t="n">
-        <v>51.2</v>
+        <v>53</v>
       </c>
       <c r="H25" t="n">
-        <v>20</v>
+        <v>20.5</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
         <v>0.9</v>
@@ -1409,31 +1409,31 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B26" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C26" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D26" t="n">
         <v>0.6</v>
       </c>
       <c r="E26" t="n">
-        <v>44.5</v>
+        <v>39.1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G26" t="n">
-        <v>50.9</v>
+        <v>51.8</v>
       </c>
       <c r="H26" t="n">
-        <v>21.4</v>
+        <v>20.9</v>
       </c>
       <c r="I26" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J26" t="n">
         <v>0.9</v>
@@ -1450,31 +1450,31 @@
         <v>61</v>
       </c>
       <c r="B27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C27" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" t="n">
         <v>0.5</v>
       </c>
       <c r="E27" t="n">
-        <v>38.6</v>
+        <v>38.5</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G27" t="n">
-        <v>51.6</v>
+        <v>50.9</v>
       </c>
       <c r="H27" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="I27" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="J27" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K27" t="n">
         <v>0.4</v>
@@ -1485,10 +1485,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" t="n">
         <v>81</v>
@@ -1497,22 +1497,22 @@
         <v>0.6</v>
       </c>
       <c r="E28" t="n">
-        <v>42.4</v>
+        <v>38.3</v>
       </c>
       <c r="F28" t="n">
         <v>0.2</v>
       </c>
       <c r="G28" t="n">
-        <v>49.3</v>
+        <v>52.8</v>
       </c>
       <c r="H28" t="n">
-        <v>19.1</v>
+        <v>17.9</v>
       </c>
       <c r="I28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J28" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K28" t="n">
         <v>0.4</v>
@@ -1526,28 +1526,28 @@
         <v>61</v>
       </c>
       <c r="B29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" t="n">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E29" t="n">
-        <v>40.1</v>
+        <v>38.5</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G29" t="n">
-        <v>52.2</v>
+        <v>52.4</v>
       </c>
       <c r="H29" t="n">
-        <v>20.8</v>
+        <v>20.3</v>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J29" t="n">
         <v>0.8</v>
@@ -1564,28 +1564,28 @@
         <v>62</v>
       </c>
       <c r="B30" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C30" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D30" t="n">
         <v>0.6</v>
       </c>
       <c r="E30" t="n">
-        <v>44.4</v>
+        <v>39.3</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G30" t="n">
-        <v>52.6</v>
+        <v>52.5</v>
       </c>
       <c r="H30" t="n">
-        <v>19</v>
+        <v>20.3</v>
       </c>
       <c r="I30" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J30" t="n">
         <v>0.8</v>
@@ -1599,31 +1599,31 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B31" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C31" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D31" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E31" t="n">
-        <v>36.6</v>
+        <v>39.1</v>
       </c>
       <c r="F31" t="n">
         <v>0.2</v>
       </c>
       <c r="G31" t="n">
-        <v>50.2</v>
+        <v>49.9</v>
       </c>
       <c r="H31" t="n">
-        <v>21.2</v>
+        <v>19.4</v>
       </c>
       <c r="I31" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J31" t="n">
         <v>0.8</v>
@@ -1643,28 +1643,28 @@
         <v>25</v>
       </c>
       <c r="C32" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D32" t="n">
         <v>0.6</v>
       </c>
       <c r="E32" t="n">
-        <v>37.5</v>
+        <v>42.3</v>
       </c>
       <c r="F32" t="n">
         <v>0.2</v>
       </c>
       <c r="G32" t="n">
-        <v>51.6</v>
+        <v>51.8</v>
       </c>
       <c r="H32" t="n">
-        <v>18.8</v>
+        <v>19.5</v>
       </c>
       <c r="I32" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J32" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K32" t="n">
         <v>0.4</v>
@@ -1675,34 +1675,34 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B33" t="n">
         <v>25</v>
       </c>
       <c r="C33" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D33" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="E33" t="n">
-        <v>37.8</v>
+        <v>42.5</v>
       </c>
       <c r="F33" t="n">
         <v>0.2</v>
       </c>
       <c r="G33" t="n">
-        <v>50.3</v>
+        <v>50.8</v>
       </c>
       <c r="H33" t="n">
-        <v>19.9</v>
+        <v>19.1</v>
       </c>
       <c r="I33" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K33" t="n">
         <v>0.4</v>
@@ -1713,10 +1713,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B34" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" t="n">
         <v>83</v>
@@ -1725,22 +1725,22 @@
         <v>0.6</v>
       </c>
       <c r="E34" t="n">
-        <v>38</v>
+        <v>39.7</v>
       </c>
       <c r="F34" t="n">
         <v>0.2</v>
       </c>
       <c r="G34" t="n">
-        <v>52.6</v>
+        <v>51.8</v>
       </c>
       <c r="H34" t="n">
-        <v>20.6</v>
+        <v>19.7</v>
       </c>
       <c r="I34" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J34" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K34" t="n">
         <v>0.4</v>
@@ -1757,25 +1757,25 @@
         <v>25</v>
       </c>
       <c r="C35" t="n">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D35" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E35" t="n">
-        <v>39.4</v>
+        <v>42.6</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G35" t="n">
-        <v>52.1</v>
+        <v>51.2</v>
       </c>
       <c r="H35" t="n">
-        <v>20.6</v>
+        <v>18.6</v>
       </c>
       <c r="I35" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J35" t="n">
         <v>0.9</v>
@@ -1789,7 +1789,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B36" t="n">
         <v>23</v>
@@ -1798,25 +1798,25 @@
         <v>81</v>
       </c>
       <c r="D36" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E36" t="n">
-        <v>37.2</v>
+        <v>40.1</v>
       </c>
       <c r="F36" t="n">
         <v>0.1</v>
       </c>
       <c r="G36" t="n">
-        <v>51.4</v>
+        <v>52.2</v>
       </c>
       <c r="H36" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="I36" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J36" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K36" t="n">
         <v>0.4</v>
@@ -1827,19 +1827,19 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B37" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C37" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E37" t="n">
-        <v>39.4</v>
+        <v>41.6</v>
       </c>
       <c r="F37" t="n">
         <v>0.2</v>
@@ -1848,13 +1848,13 @@
         <v>51.7</v>
       </c>
       <c r="H37" t="n">
-        <v>20.9</v>
+        <v>19.6</v>
       </c>
       <c r="I37" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J37" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K37" t="n">
         <v>0.4</v>
@@ -1865,28 +1865,28 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B38" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C38" t="n">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D38" t="n">
         <v>0.6</v>
       </c>
       <c r="E38" t="n">
-        <v>38.5</v>
+        <v>39.1</v>
       </c>
       <c r="F38" t="n">
         <v>0.1</v>
       </c>
       <c r="G38" t="n">
-        <v>51.7</v>
+        <v>52.9</v>
       </c>
       <c r="H38" t="n">
-        <v>19.5</v>
+        <v>21.6</v>
       </c>
       <c r="I38" t="n">
         <v>12</v>
@@ -1909,25 +1909,25 @@
         <v>24</v>
       </c>
       <c r="C39" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D39" t="n">
         <v>0.6</v>
       </c>
       <c r="E39" t="n">
-        <v>42.8</v>
+        <v>42</v>
       </c>
       <c r="F39" t="n">
         <v>0.1</v>
       </c>
       <c r="G39" t="n">
-        <v>51.7</v>
+        <v>50.3</v>
       </c>
       <c r="H39" t="n">
-        <v>19.7</v>
+        <v>19.4</v>
       </c>
       <c r="I39" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
         <v>0.9</v>
@@ -1941,31 +1941,31 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B40" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C40" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D40" t="n">
         <v>0.6</v>
       </c>
       <c r="E40" t="n">
-        <v>39.3</v>
+        <v>39.9</v>
       </c>
       <c r="F40" t="n">
         <v>0.1</v>
       </c>
       <c r="G40" t="n">
-        <v>52.4</v>
+        <v>52.1</v>
       </c>
       <c r="H40" t="n">
-        <v>20.7</v>
+        <v>17.9</v>
       </c>
       <c r="I40" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J40" t="n">
         <v>0.9</v>
@@ -1982,28 +1982,28 @@
         <v>62</v>
       </c>
       <c r="B41" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C41" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D41" t="n">
         <v>0.6</v>
       </c>
       <c r="E41" t="n">
-        <v>39.1</v>
+        <v>39.8</v>
       </c>
       <c r="F41" t="n">
         <v>0.1</v>
       </c>
       <c r="G41" t="n">
-        <v>50.5</v>
+        <v>53.1</v>
       </c>
       <c r="H41" t="n">
-        <v>21.6</v>
+        <v>21</v>
       </c>
       <c r="I41" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
         <v>0.8</v>
@@ -2020,28 +2020,28 @@
         <v>62</v>
       </c>
       <c r="B42" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C42" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D42" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E42" t="n">
-        <v>40.7</v>
+        <v>40.2</v>
       </c>
       <c r="F42" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G42" t="n">
-        <v>51.1</v>
+        <v>49.8</v>
       </c>
       <c r="H42" t="n">
-        <v>19</v>
+        <v>20.9</v>
       </c>
       <c r="I42" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="J42" t="n">
         <v>0.9</v>
@@ -2055,34 +2055,34 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B43" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C43" t="n">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D43" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E43" t="n">
-        <v>38.8</v>
+        <v>40.6</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G43" t="n">
-        <v>51.1</v>
+        <v>52.1</v>
       </c>
       <c r="H43" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I43" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K43" t="n">
         <v>0.4</v>
@@ -2099,28 +2099,28 @@
         <v>24</v>
       </c>
       <c r="C44" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D44" t="n">
         <v>0.6</v>
       </c>
       <c r="E44" t="n">
-        <v>41.3</v>
+        <v>39.5</v>
       </c>
       <c r="F44" t="n">
         <v>0.2</v>
       </c>
       <c r="G44" t="n">
-        <v>53.5</v>
+        <v>50</v>
       </c>
       <c r="H44" t="n">
-        <v>21.1</v>
+        <v>20.2</v>
       </c>
       <c r="I44" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J44" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K44" t="n">
         <v>0.4</v>
@@ -2131,34 +2131,34 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B45" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C45" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D45" t="n">
         <v>0.6</v>
       </c>
       <c r="E45" t="n">
-        <v>41.3</v>
+        <v>39</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G45" t="n">
-        <v>52.2</v>
+        <v>53.5</v>
       </c>
       <c r="H45" t="n">
-        <v>19.7</v>
+        <v>20.9</v>
       </c>
       <c r="I45" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J45" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K45" t="n">
         <v>0.4</v>
@@ -2169,31 +2169,31 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B46" t="n">
         <v>24</v>
       </c>
       <c r="C46" t="n">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D46" t="n">
         <v>0.6</v>
       </c>
       <c r="E46" t="n">
-        <v>40.8</v>
+        <v>41.8</v>
       </c>
       <c r="F46" t="n">
         <v>0.1</v>
       </c>
       <c r="G46" t="n">
-        <v>51.7</v>
+        <v>50.5</v>
       </c>
       <c r="H46" t="n">
-        <v>19.5</v>
+        <v>20.5</v>
       </c>
       <c r="I46" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J46" t="n">
         <v>0.8</v>
@@ -2207,34 +2207,34 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B47" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C47" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D47" t="n">
         <v>0.6</v>
       </c>
       <c r="E47" t="n">
-        <v>40.9</v>
+        <v>44.3</v>
       </c>
       <c r="F47" t="n">
         <v>0.1</v>
       </c>
       <c r="G47" t="n">
-        <v>51.7</v>
+        <v>51.2</v>
       </c>
       <c r="H47" t="n">
-        <v>20.1</v>
+        <v>19.1</v>
       </c>
       <c r="I47" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J47" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K47" t="n">
         <v>0.4</v>
@@ -2245,31 +2245,31 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B48" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C48" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D48" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E48" t="n">
-        <v>42.9</v>
+        <v>40.1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G48" t="n">
-        <v>53.6</v>
+        <v>49.8</v>
       </c>
       <c r="H48" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="I48" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J48" t="n">
         <v>0.8</v>
@@ -2283,31 +2283,31 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B49" t="n">
         <v>24</v>
       </c>
       <c r="C49" t="n">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D49" t="n">
         <v>0.5</v>
       </c>
       <c r="E49" t="n">
-        <v>36.1</v>
+        <v>40.1</v>
       </c>
       <c r="F49" t="n">
         <v>0.2</v>
       </c>
       <c r="G49" t="n">
-        <v>50.9</v>
+        <v>50.1</v>
       </c>
       <c r="H49" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="I49" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J49" t="n">
         <v>0.9</v>
@@ -2327,28 +2327,28 @@
         <v>24</v>
       </c>
       <c r="C50" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D50" t="n">
         <v>0.6</v>
       </c>
       <c r="E50" t="n">
-        <v>41.2</v>
+        <v>36.3</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G50" t="n">
-        <v>51.4</v>
+        <v>50.2</v>
       </c>
       <c r="H50" t="n">
-        <v>19.9</v>
+        <v>20.9</v>
       </c>
       <c r="I50" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J50" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K50" t="n">
         <v>0.4</v>
@@ -2359,34 +2359,34 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B51" t="n">
         <v>23</v>
       </c>
       <c r="C51" t="n">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D51" t="n">
         <v>0.7</v>
       </c>
       <c r="E51" t="n">
-        <v>40.3</v>
+        <v>38.4</v>
       </c>
       <c r="F51" t="n">
         <v>0.2</v>
       </c>
       <c r="G51" t="n">
-        <v>52.3</v>
+        <v>53.5</v>
       </c>
       <c r="H51" t="n">
-        <v>19.7</v>
+        <v>18.7</v>
       </c>
       <c r="I51" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J51" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K51" t="n">
         <v>0.4</v>
@@ -2400,28 +2400,28 @@
         <v>47</v>
       </c>
       <c r="B52" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C52" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D52" t="n">
         <v>0.6</v>
       </c>
       <c r="E52" t="n">
-        <v>41.6</v>
+        <v>42.1</v>
       </c>
       <c r="F52" t="n">
         <v>0.1</v>
       </c>
       <c r="G52" t="n">
-        <v>94.59999999999999</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="H52" t="n">
-        <v>29.9</v>
+        <v>28.5</v>
       </c>
       <c r="I52" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J52" t="n">
         <v>0.9</v>
@@ -2438,28 +2438,28 @@
         <v>47</v>
       </c>
       <c r="B53" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C53" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D53" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E53" t="n">
-        <v>36.5</v>
+        <v>38</v>
       </c>
       <c r="F53" t="n">
         <v>0.1</v>
       </c>
       <c r="G53" t="n">
-        <v>95.5</v>
+        <v>94.8</v>
       </c>
       <c r="H53" t="n">
-        <v>31.3</v>
+        <v>30.6</v>
       </c>
       <c r="I53" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J53" t="n">
         <v>0.8</v>
@@ -2473,34 +2473,34 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B54" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C54" t="n">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D54" t="n">
         <v>0.6</v>
       </c>
       <c r="E54" t="n">
-        <v>40.5</v>
+        <v>42</v>
       </c>
       <c r="F54" t="n">
         <v>0.1</v>
       </c>
       <c r="G54" t="n">
-        <v>94.8</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="H54" t="n">
-        <v>28.5</v>
+        <v>32.1</v>
       </c>
       <c r="I54" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J54" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K54" t="n">
         <v>0.4</v>
@@ -2514,28 +2514,28 @@
         <v>48</v>
       </c>
       <c r="B55" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C55" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D55" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E55" t="n">
-        <v>42.3</v>
+        <v>36.5</v>
       </c>
       <c r="F55" t="n">
         <v>0.1</v>
       </c>
       <c r="G55" t="n">
-        <v>93.8</v>
+        <v>96.8</v>
       </c>
       <c r="H55" t="n">
-        <v>29.5</v>
+        <v>30.1</v>
       </c>
       <c r="I55" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J55" t="n">
         <v>0.9</v>
@@ -2549,31 +2549,31 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B56" t="n">
         <v>25</v>
       </c>
       <c r="C56" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D56" t="n">
         <v>0.6</v>
       </c>
       <c r="E56" t="n">
-        <v>43.8</v>
+        <v>39</v>
       </c>
       <c r="F56" t="n">
         <v>0.1</v>
       </c>
       <c r="G56" t="n">
-        <v>95.09999999999999</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="H56" t="n">
-        <v>30.8</v>
+        <v>31.8</v>
       </c>
       <c r="I56" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J56" t="n">
         <v>0.8</v>
@@ -2590,28 +2590,28 @@
         <v>47</v>
       </c>
       <c r="B57" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C57" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D57" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E57" t="n">
-        <v>40.1</v>
+        <v>38.8</v>
       </c>
       <c r="F57" t="n">
         <v>0.1</v>
       </c>
       <c r="G57" t="n">
-        <v>95.7</v>
+        <v>94.5</v>
       </c>
       <c r="H57" t="n">
-        <v>30.3</v>
+        <v>29.9</v>
       </c>
       <c r="I57" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="J57" t="n">
         <v>0.9</v>
@@ -2625,34 +2625,34 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B58" t="n">
         <v>23</v>
       </c>
       <c r="C58" t="n">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D58" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E58" t="n">
-        <v>42.8</v>
+        <v>39.1</v>
       </c>
       <c r="F58" t="n">
         <v>0.1</v>
       </c>
       <c r="G58" t="n">
-        <v>93.90000000000001</v>
+        <v>94.2</v>
       </c>
       <c r="H58" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="I58" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J58" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K58" t="n">
         <v>0.4</v>
@@ -2663,31 +2663,31 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B59" t="n">
         <v>24</v>
       </c>
       <c r="C59" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D59" t="n">
         <v>0.6</v>
       </c>
       <c r="E59" t="n">
-        <v>41.6</v>
+        <v>37.3</v>
       </c>
       <c r="F59" t="n">
         <v>0.1</v>
       </c>
       <c r="G59" t="n">
-        <v>95.59999999999999</v>
+        <v>95</v>
       </c>
       <c r="H59" t="n">
-        <v>28.8</v>
+        <v>27.9</v>
       </c>
       <c r="I59" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J59" t="n">
         <v>0.9</v>
@@ -2704,31 +2704,31 @@
         <v>47</v>
       </c>
       <c r="B60" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C60" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D60" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E60" t="n">
-        <v>38.8</v>
+        <v>42.1</v>
       </c>
       <c r="F60" t="n">
         <v>0.1</v>
       </c>
       <c r="G60" t="n">
-        <v>95.5</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="H60" t="n">
-        <v>29.7</v>
+        <v>28.4</v>
       </c>
       <c r="I60" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J60" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K60" t="n">
         <v>0.4</v>
@@ -2739,34 +2739,34 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B61" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C61" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D61" t="n">
         <v>0.7</v>
       </c>
       <c r="E61" t="n">
-        <v>42.1</v>
+        <v>39.3</v>
       </c>
       <c r="F61" t="n">
         <v>0.1</v>
       </c>
       <c r="G61" t="n">
-        <v>94.8</v>
+        <v>93.5</v>
       </c>
       <c r="H61" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="I61" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J61" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K61" t="n">
         <v>0.4</v>
@@ -2777,31 +2777,31 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B62" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C62" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D62" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E62" t="n">
-        <v>37.2</v>
+        <v>42.2</v>
       </c>
       <c r="F62" t="n">
         <v>0.1</v>
       </c>
       <c r="G62" t="n">
-        <v>95.40000000000001</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="H62" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="I62" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J62" t="n">
         <v>0.9</v>
@@ -2815,34 +2815,34 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B63" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C63" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D63" t="n">
         <v>0.6</v>
       </c>
       <c r="E63" t="n">
-        <v>38.5</v>
+        <v>38</v>
       </c>
       <c r="F63" t="n">
         <v>0.1</v>
       </c>
       <c r="G63" t="n">
-        <v>95.7</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="H63" t="n">
-        <v>30.8</v>
+        <v>31.3</v>
       </c>
       <c r="I63" t="n">
         <v>4</v>
       </c>
       <c r="J63" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K63" t="n">
         <v>0.4</v>
@@ -2853,34 +2853,34 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B64" t="n">
         <v>24</v>
       </c>
       <c r="C64" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D64" t="n">
         <v>0.6</v>
       </c>
       <c r="E64" t="n">
-        <v>43.2</v>
+        <v>44.2</v>
       </c>
       <c r="F64" t="n">
         <v>0.1</v>
       </c>
       <c r="G64" t="n">
-        <v>94.3</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="H64" t="n">
-        <v>30.4</v>
+        <v>29.6</v>
       </c>
       <c r="I64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J64" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K64" t="n">
         <v>0.4</v>
@@ -2891,28 +2891,28 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B65" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C65" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D65" t="n">
         <v>0.6</v>
       </c>
       <c r="E65" t="n">
-        <v>40.2</v>
+        <v>41.4</v>
       </c>
       <c r="F65" t="n">
         <v>0.1</v>
       </c>
       <c r="G65" t="n">
-        <v>96.7</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="H65" t="n">
-        <v>29.6</v>
+        <v>30.1</v>
       </c>
       <c r="I65" t="n">
         <v>9</v>
@@ -2929,34 +2929,34 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B66" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C66" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D66" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E66" t="n">
-        <v>40</v>
+        <v>43.7</v>
       </c>
       <c r="F66" t="n">
         <v>0.1</v>
       </c>
       <c r="G66" t="n">
-        <v>96.09999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="H66" t="n">
-        <v>31.3</v>
+        <v>28.4</v>
       </c>
       <c r="I66" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J66" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K66" t="n">
         <v>0.4</v>
@@ -2973,28 +2973,28 @@
         <v>24</v>
       </c>
       <c r="C67" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D67" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E67" t="n">
-        <v>40.7</v>
+        <v>39</v>
       </c>
       <c r="F67" t="n">
         <v>0.1</v>
       </c>
       <c r="G67" t="n">
-        <v>97.40000000000001</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="H67" t="n">
-        <v>30.4</v>
+        <v>29.6</v>
       </c>
       <c r="I67" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J67" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K67" t="n">
         <v>0.4</v>
@@ -3008,28 +3008,28 @@
         <v>47</v>
       </c>
       <c r="B68" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C68" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D68" t="n">
         <v>0.6</v>
       </c>
       <c r="E68" t="n">
-        <v>39.3</v>
+        <v>41</v>
       </c>
       <c r="F68" t="n">
         <v>0.1</v>
       </c>
       <c r="G68" t="n">
-        <v>93</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="H68" t="n">
-        <v>31.4</v>
+        <v>28.6</v>
       </c>
       <c r="I68" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J68" t="n">
         <v>0.8</v>
@@ -3046,28 +3046,28 @@
         <v>48</v>
       </c>
       <c r="B69" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C69" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D69" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E69" t="n">
-        <v>42.8</v>
+        <v>37.6</v>
       </c>
       <c r="F69" t="n">
         <v>0.1</v>
       </c>
       <c r="G69" t="n">
-        <v>96.3</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="H69" t="n">
-        <v>30.3</v>
+        <v>31.5</v>
       </c>
       <c r="I69" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
         <v>0.8</v>
@@ -3081,31 +3081,31 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B70" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C70" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D70" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E70" t="n">
-        <v>38.3</v>
+        <v>37.6</v>
       </c>
       <c r="F70" t="n">
         <v>0.1</v>
       </c>
       <c r="G70" t="n">
-        <v>94.59999999999999</v>
+        <v>94.8</v>
       </c>
       <c r="H70" t="n">
-        <v>30.4</v>
+        <v>33.1</v>
       </c>
       <c r="I70" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J70" t="n">
         <v>0.9</v>
@@ -3119,34 +3119,34 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B71" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C71" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D71" t="n">
         <v>0.6</v>
       </c>
       <c r="E71" t="n">
-        <v>39.4</v>
+        <v>41.1</v>
       </c>
       <c r="F71" t="n">
         <v>0.1</v>
       </c>
       <c r="G71" t="n">
-        <v>93.90000000000001</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="H71" t="n">
-        <v>30.5</v>
+        <v>28.7</v>
       </c>
       <c r="I71" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="J71" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K71" t="n">
         <v>0.4</v>
@@ -3157,31 +3157,31 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B72" t="n">
         <v>24</v>
       </c>
       <c r="C72" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D72" t="n">
         <v>0.6</v>
       </c>
       <c r="E72" t="n">
-        <v>36.8</v>
+        <v>38.9</v>
       </c>
       <c r="F72" t="n">
         <v>0.1</v>
       </c>
       <c r="G72" t="n">
-        <v>93.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="H72" t="n">
-        <v>31.7</v>
+        <v>30</v>
       </c>
       <c r="I72" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J72" t="n">
         <v>0.9</v>
@@ -3195,34 +3195,34 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B73" t="n">
         <v>23</v>
       </c>
       <c r="C73" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D73" t="n">
         <v>0.6</v>
       </c>
       <c r="E73" t="n">
-        <v>42.4</v>
+        <v>40.4</v>
       </c>
       <c r="F73" t="n">
         <v>0.1</v>
       </c>
       <c r="G73" t="n">
-        <v>95.59999999999999</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="H73" t="n">
-        <v>30.4</v>
+        <v>30.9</v>
       </c>
       <c r="I73" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J73" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K73" t="n">
         <v>0.4</v>
@@ -3233,31 +3233,31 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B74" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C74" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D74" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="E74" t="n">
-        <v>40.1</v>
+        <v>41.1</v>
       </c>
       <c r="F74" t="n">
         <v>0.1</v>
       </c>
       <c r="G74" t="n">
-        <v>97.2</v>
+        <v>95</v>
       </c>
       <c r="H74" t="n">
-        <v>30.7</v>
+        <v>29.1</v>
       </c>
       <c r="I74" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="J74" t="n">
         <v>0.8</v>
@@ -3271,34 +3271,34 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B75" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C75" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E75" t="n">
-        <v>41.8</v>
+        <v>39.5</v>
       </c>
       <c r="F75" t="n">
         <v>0.1</v>
       </c>
       <c r="G75" t="n">
-        <v>95.2</v>
+        <v>94.3</v>
       </c>
       <c r="H75" t="n">
-        <v>29.3</v>
+        <v>29.6</v>
       </c>
       <c r="I75" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K75" t="n">
         <v>0.4</v>
@@ -3309,31 +3309,31 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B76" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C76" t="n">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D76" t="n">
         <v>0.5</v>
       </c>
       <c r="E76" t="n">
-        <v>40.7</v>
+        <v>38.1</v>
       </c>
       <c r="F76" t="n">
         <v>0.1</v>
       </c>
       <c r="G76" t="n">
-        <v>94.3</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="H76" t="n">
-        <v>31.2</v>
+        <v>29.4</v>
       </c>
       <c r="I76" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J76" t="n">
         <v>0.8</v>
@@ -3347,34 +3347,34 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B77" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C77" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D77" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E77" t="n">
-        <v>40.7</v>
+        <v>39.7</v>
       </c>
       <c r="F77" t="n">
         <v>0.1</v>
       </c>
       <c r="G77" t="n">
-        <v>93.59999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="H77" t="n">
-        <v>31.6</v>
+        <v>30.3</v>
       </c>
       <c r="I77" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J77" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K77" t="n">
         <v>0.4</v>
@@ -3385,10 +3385,10 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B78" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C78" t="n">
         <v>82</v>
@@ -3397,22 +3397,22 @@
         <v>0.6</v>
       </c>
       <c r="E78" t="n">
-        <v>43.1</v>
+        <v>35.8</v>
       </c>
       <c r="F78" t="n">
         <v>0.1</v>
       </c>
       <c r="G78" t="n">
-        <v>93.59999999999999</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="H78" t="n">
-        <v>28.9</v>
+        <v>31.4</v>
       </c>
       <c r="I78" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J78" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K78" t="n">
         <v>0.4</v>
@@ -3423,31 +3423,31 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B79" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C79" t="n">
         <v>81</v>
       </c>
       <c r="D79" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E79" t="n">
-        <v>35.2</v>
+        <v>37.6</v>
       </c>
       <c r="F79" t="n">
         <v>0.1</v>
       </c>
       <c r="G79" t="n">
-        <v>93.5</v>
+        <v>95.3</v>
       </c>
       <c r="H79" t="n">
-        <v>32.5</v>
+        <v>30.7</v>
       </c>
       <c r="I79" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="J79" t="n">
         <v>0.9</v>
@@ -3461,31 +3461,31 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B80" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C80" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D80" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E80" t="n">
-        <v>40.6</v>
+        <v>42.1</v>
       </c>
       <c r="F80" t="n">
         <v>0.1</v>
       </c>
       <c r="G80" t="n">
-        <v>93.90000000000001</v>
+        <v>95</v>
       </c>
       <c r="H80" t="n">
         <v>30.2</v>
       </c>
       <c r="I80" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J80" t="n">
         <v>0.8</v>
@@ -3499,34 +3499,34 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B81" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C81" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D81" t="n">
         <v>0.6</v>
       </c>
       <c r="E81" t="n">
-        <v>38.6</v>
+        <v>38</v>
       </c>
       <c r="F81" t="n">
         <v>0.1</v>
       </c>
       <c r="G81" t="n">
-        <v>93.90000000000001</v>
+        <v>94.3</v>
       </c>
       <c r="H81" t="n">
-        <v>30</v>
+        <v>31.1</v>
       </c>
       <c r="I81" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J81" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K81" t="n">
         <v>0.4</v>
@@ -3537,10 +3537,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B82" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C82" t="n">
         <v>82</v>
@@ -3549,19 +3549,19 @@
         <v>0.6</v>
       </c>
       <c r="E82" t="n">
-        <v>36.6</v>
+        <v>42</v>
       </c>
       <c r="F82" t="n">
         <v>0.1</v>
       </c>
       <c r="G82" t="n">
-        <v>95.40000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="H82" t="n">
-        <v>30.1</v>
+        <v>29.6</v>
       </c>
       <c r="I82" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J82" t="n">
         <v>0.9</v>
@@ -3575,28 +3575,28 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B83" t="n">
         <v>24</v>
       </c>
       <c r="C83" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D83" t="n">
         <v>0.6</v>
       </c>
       <c r="E83" t="n">
-        <v>39.5</v>
+        <v>43.6</v>
       </c>
       <c r="F83" t="n">
         <v>0.1</v>
       </c>
       <c r="G83" t="n">
-        <v>94.7</v>
+        <v>95</v>
       </c>
       <c r="H83" t="n">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="I83" t="n">
         <v>4</v>
@@ -3613,34 +3613,34 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B84" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C84" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D84" t="n">
         <v>0.6</v>
       </c>
       <c r="E84" t="n">
-        <v>40.7</v>
+        <v>40.4</v>
       </c>
       <c r="F84" t="n">
         <v>0.1</v>
       </c>
       <c r="G84" t="n">
-        <v>94.2</v>
+        <v>95.3</v>
       </c>
       <c r="H84" t="n">
-        <v>30.7</v>
+        <v>31.8</v>
       </c>
       <c r="I84" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J84" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K84" t="n">
         <v>0.4</v>
@@ -3651,34 +3651,34 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B85" t="n">
         <v>24</v>
       </c>
       <c r="C85" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D85" t="n">
         <v>0.6</v>
       </c>
       <c r="E85" t="n">
-        <v>43.1</v>
+        <v>38.5</v>
       </c>
       <c r="F85" t="n">
         <v>0.1</v>
       </c>
       <c r="G85" t="n">
-        <v>94.2</v>
+        <v>96.2</v>
       </c>
       <c r="H85" t="n">
-        <v>29.7</v>
+        <v>31.3</v>
       </c>
       <c r="I85" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J85" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K85" t="n">
         <v>0.4</v>
@@ -3692,31 +3692,31 @@
         <v>48</v>
       </c>
       <c r="B86" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C86" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D86" t="n">
         <v>0.6</v>
       </c>
       <c r="E86" t="n">
-        <v>41.4</v>
+        <v>39.2</v>
       </c>
       <c r="F86" t="n">
         <v>0.1</v>
       </c>
       <c r="G86" t="n">
-        <v>95.8</v>
+        <v>96.8</v>
       </c>
       <c r="H86" t="n">
-        <v>28.8</v>
+        <v>30.7</v>
       </c>
       <c r="I86" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J86" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K86" t="n">
         <v>0.4</v>
@@ -3727,31 +3727,31 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B87" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C87" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D87" t="n">
         <v>0.6</v>
       </c>
       <c r="E87" t="n">
-        <v>37.6</v>
+        <v>37.7</v>
       </c>
       <c r="F87" t="n">
         <v>0.1</v>
       </c>
       <c r="G87" t="n">
-        <v>96.7</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="H87" t="n">
-        <v>31.2</v>
+        <v>28.8</v>
       </c>
       <c r="I87" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="J87" t="n">
         <v>0.8</v>
@@ -3768,28 +3768,28 @@
         <v>48</v>
       </c>
       <c r="B88" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C88" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D88" t="n">
         <v>0.6</v>
       </c>
       <c r="E88" t="n">
-        <v>42</v>
+        <v>38.9</v>
       </c>
       <c r="F88" t="n">
         <v>0.1</v>
       </c>
       <c r="G88" t="n">
-        <v>96</v>
+        <v>95.2</v>
       </c>
       <c r="H88" t="n">
-        <v>29.9</v>
+        <v>28.9</v>
       </c>
       <c r="I88" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J88" t="n">
         <v>0.8</v>
@@ -3803,34 +3803,34 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B89" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C89" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D89" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E89" t="n">
-        <v>38.9</v>
+        <v>34.1</v>
       </c>
       <c r="F89" t="n">
         <v>0.1</v>
       </c>
       <c r="G89" t="n">
-        <v>97.3</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="H89" t="n">
-        <v>30.4</v>
+        <v>28.1</v>
       </c>
       <c r="I89" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J89" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K89" t="n">
         <v>0.4</v>
@@ -3844,7 +3844,7 @@
         <v>48</v>
       </c>
       <c r="B90" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C90" t="n">
         <v>81</v>
@@ -3853,19 +3853,19 @@
         <v>0.6</v>
       </c>
       <c r="E90" t="n">
-        <v>39.4</v>
+        <v>41.8</v>
       </c>
       <c r="F90" t="n">
         <v>0.1</v>
       </c>
       <c r="G90" t="n">
-        <v>94.59999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="H90" t="n">
-        <v>30.9</v>
+        <v>30.7</v>
       </c>
       <c r="I90" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J90" t="n">
         <v>0.9</v>
@@ -3882,28 +3882,28 @@
         <v>47</v>
       </c>
       <c r="B91" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C91" t="n">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D91" t="n">
         <v>0.6</v>
       </c>
       <c r="E91" t="n">
-        <v>39.5</v>
+        <v>42.4</v>
       </c>
       <c r="F91" t="n">
         <v>0.1</v>
       </c>
       <c r="G91" t="n">
-        <v>95.09999999999999</v>
+        <v>95.2</v>
       </c>
       <c r="H91" t="n">
-        <v>30.7</v>
+        <v>28.8</v>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="J91" t="n">
         <v>0.9</v>
@@ -3917,31 +3917,31 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B92" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C92" t="n">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D92" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E92" t="n">
-        <v>39.6</v>
+        <v>35.7</v>
       </c>
       <c r="F92" t="n">
         <v>0.1</v>
       </c>
       <c r="G92" t="n">
-        <v>93.40000000000001</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="H92" t="n">
-        <v>31.2</v>
+        <v>30.8</v>
       </c>
       <c r="I92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J92" t="n">
         <v>0.9</v>
@@ -3958,31 +3958,31 @@
         <v>48</v>
       </c>
       <c r="B93" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C93" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D93" t="n">
         <v>0.5</v>
       </c>
       <c r="E93" t="n">
-        <v>41</v>
+        <v>40.6</v>
       </c>
       <c r="F93" t="n">
         <v>0.1</v>
       </c>
       <c r="G93" t="n">
-        <v>96.40000000000001</v>
+        <v>94.8</v>
       </c>
       <c r="H93" t="n">
-        <v>28.8</v>
+        <v>30.4</v>
       </c>
       <c r="I93" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J93" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K93" t="n">
         <v>0.4</v>
@@ -3993,31 +3993,31 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B94" t="n">
         <v>24</v>
       </c>
       <c r="C94" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D94" t="n">
         <v>0.6</v>
       </c>
       <c r="E94" t="n">
-        <v>40.2</v>
+        <v>41.9</v>
       </c>
       <c r="F94" t="n">
         <v>0.1</v>
       </c>
       <c r="G94" t="n">
-        <v>96.09999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="H94" t="n">
-        <v>29.9</v>
+        <v>29.4</v>
       </c>
       <c r="I94" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J94" t="n">
         <v>0.9</v>
@@ -4031,34 +4031,34 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B95" t="n">
         <v>24</v>
       </c>
       <c r="C95" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D95" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E95" t="n">
-        <v>41.3</v>
+        <v>39.4</v>
       </c>
       <c r="F95" t="n">
         <v>0.1</v>
       </c>
       <c r="G95" t="n">
-        <v>94.5</v>
+        <v>94.8</v>
       </c>
       <c r="H95" t="n">
-        <v>29.7</v>
+        <v>31.3</v>
       </c>
       <c r="I95" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="J95" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K95" t="n">
         <v>0.4</v>
@@ -4069,34 +4069,34 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B96" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C96" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D96" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E96" t="n">
-        <v>39.5</v>
+        <v>40.5</v>
       </c>
       <c r="F96" t="n">
         <v>0.1</v>
       </c>
       <c r="G96" t="n">
-        <v>94.59999999999999</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="H96" t="n">
-        <v>30.4</v>
+        <v>30.2</v>
       </c>
       <c r="I96" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J96" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K96" t="n">
         <v>0.4</v>
@@ -4110,28 +4110,28 @@
         <v>48</v>
       </c>
       <c r="B97" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C97" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D97" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E97" t="n">
-        <v>37.1</v>
+        <v>40</v>
       </c>
       <c r="F97" t="n">
         <v>0.1</v>
       </c>
       <c r="G97" t="n">
-        <v>95.3</v>
+        <v>95.8</v>
       </c>
       <c r="H97" t="n">
-        <v>30.5</v>
+        <v>31</v>
       </c>
       <c r="I97" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J97" t="n">
         <v>0.8</v>
@@ -4145,34 +4145,34 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B98" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C98" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D98" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E98" t="n">
-        <v>38.1</v>
+        <v>41.5</v>
       </c>
       <c r="F98" t="n">
         <v>0.1</v>
       </c>
       <c r="G98" t="n">
-        <v>95.09999999999999</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="H98" t="n">
-        <v>27.7</v>
+        <v>30.4</v>
       </c>
       <c r="I98" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J98" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K98" t="n">
         <v>0.4</v>
@@ -4183,34 +4183,34 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B99" t="n">
         <v>23</v>
       </c>
       <c r="C99" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D99" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E99" t="n">
-        <v>36.6</v>
+        <v>37.9</v>
       </c>
       <c r="F99" t="n">
         <v>0.1</v>
       </c>
       <c r="G99" t="n">
-        <v>95.09999999999999</v>
+        <v>94.2</v>
       </c>
       <c r="H99" t="n">
-        <v>30.1</v>
+        <v>29.2</v>
       </c>
       <c r="I99" t="n">
         <v>2</v>
       </c>
       <c r="J99" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K99" t="n">
         <v>0.4</v>
@@ -4221,34 +4221,34 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B100" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C100" t="n">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D100" t="n">
         <v>0.6</v>
       </c>
       <c r="E100" t="n">
-        <v>39.9</v>
+        <v>40.3</v>
       </c>
       <c r="F100" t="n">
         <v>0.1</v>
       </c>
       <c r="G100" t="n">
-        <v>95.59999999999999</v>
+        <v>96.3</v>
       </c>
       <c r="H100" t="n">
-        <v>30.5</v>
+        <v>30.7</v>
       </c>
       <c r="I100" t="n">
         <v>10</v>
       </c>
       <c r="J100" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K100" t="n">
         <v>0.4</v>
@@ -4259,31 +4259,31 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B101" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C101" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D101" t="n">
         <v>0.6</v>
       </c>
       <c r="E101" t="n">
-        <v>45</v>
+        <v>41.1</v>
       </c>
       <c r="F101" t="n">
         <v>0.1</v>
       </c>
       <c r="G101" t="n">
-        <v>94.40000000000001</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="H101" t="n">
-        <v>30.2</v>
+        <v>29.9</v>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J101" t="n">
         <v>0.8</v>

--- a/需求响应/data/DistributionNetwork3/Taxi.xlsx
+++ b/需求响应/data/DistributionNetwork3/Taxi.xlsx
@@ -497,31 +497,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D2" t="n">
         <v>0.6</v>
       </c>
       <c r="E2" t="n">
-        <v>39.5</v>
+        <v>39.9</v>
       </c>
       <c r="F2" t="n">
         <v>0.2</v>
       </c>
       <c r="G2" t="n">
-        <v>51.7</v>
+        <v>50.7</v>
       </c>
       <c r="H2" t="n">
-        <v>20.2</v>
+        <v>19.9</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J2" t="n">
         <v>0.9</v>
@@ -538,28 +538,28 @@
         <v>63</v>
       </c>
       <c r="B3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="n">
         <v>83</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E3" t="n">
-        <v>39.5</v>
+        <v>40.7</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G3" t="n">
-        <v>52.2</v>
+        <v>51.2</v>
       </c>
       <c r="H3" t="n">
-        <v>19.1</v>
+        <v>19.8</v>
       </c>
       <c r="I3" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J3" t="n">
         <v>0.9</v>
@@ -576,28 +576,28 @@
         <v>61</v>
       </c>
       <c r="B4" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D4" t="n">
         <v>0.6</v>
       </c>
       <c r="E4" t="n">
-        <v>38.7</v>
+        <v>42.4</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G4" t="n">
-        <v>52</v>
+        <v>50.9</v>
       </c>
       <c r="H4" t="n">
-        <v>19.3</v>
+        <v>20.1</v>
       </c>
       <c r="I4" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J4" t="n">
         <v>0.9</v>
@@ -611,31 +611,31 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B5" t="n">
         <v>24</v>
       </c>
       <c r="C5" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D5" t="n">
         <v>0.5</v>
       </c>
       <c r="E5" t="n">
-        <v>39.8</v>
+        <v>38.8</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G5" t="n">
-        <v>51.8</v>
+        <v>53.9</v>
       </c>
       <c r="H5" t="n">
         <v>19.9</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J5" t="n">
         <v>0.9</v>
@@ -649,34 +649,34 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D6" t="n">
         <v>0.6</v>
       </c>
       <c r="E6" t="n">
-        <v>40.1</v>
+        <v>41.7</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G6" t="n">
-        <v>50.2</v>
+        <v>51</v>
       </c>
       <c r="H6" t="n">
-        <v>20.4</v>
+        <v>19</v>
       </c>
       <c r="I6" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K6" t="n">
         <v>0.4</v>
@@ -690,28 +690,28 @@
         <v>61</v>
       </c>
       <c r="B7" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E7" t="n">
-        <v>38</v>
+        <v>42.2</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G7" t="n">
-        <v>50.3</v>
+        <v>51.8</v>
       </c>
       <c r="H7" t="n">
-        <v>20.3</v>
+        <v>21.5</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J7" t="n">
         <v>0.8</v>
@@ -725,10 +725,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="n">
         <v>81</v>
@@ -737,19 +737,19 @@
         <v>0.6</v>
       </c>
       <c r="E8" t="n">
-        <v>40.9</v>
+        <v>38.5</v>
       </c>
       <c r="F8" t="n">
         <v>0.1</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2</v>
+        <v>50.2</v>
       </c>
       <c r="H8" t="n">
-        <v>20</v>
+        <v>21.9</v>
       </c>
       <c r="I8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
         <v>0.8</v>
@@ -763,31 +763,31 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E9" t="n">
-        <v>35.6</v>
+        <v>42.9</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G9" t="n">
-        <v>51.1</v>
+        <v>52.8</v>
       </c>
       <c r="H9" t="n">
-        <v>19.8</v>
+        <v>18.3</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J9" t="n">
         <v>0.9</v>
@@ -801,7 +801,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" t="n">
         <v>24</v>
@@ -810,22 +810,22 @@
         <v>83</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E10" t="n">
-        <v>38.8</v>
+        <v>38.5</v>
       </c>
       <c r="F10" t="n">
         <v>0.2</v>
       </c>
       <c r="G10" t="n">
-        <v>52.6</v>
+        <v>50.6</v>
       </c>
       <c r="H10" t="n">
-        <v>20.7</v>
+        <v>20.5</v>
       </c>
       <c r="I10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J10" t="n">
         <v>0.8</v>
@@ -839,31 +839,31 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E11" t="n">
-        <v>40.3</v>
+        <v>44.6</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G11" t="n">
-        <v>51.3</v>
+        <v>49.5</v>
       </c>
       <c r="H11" t="n">
-        <v>20.8</v>
+        <v>20.3</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J11" t="n">
         <v>0.8</v>
@@ -880,31 +880,31 @@
         <v>61</v>
       </c>
       <c r="B12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="n">
         <v>83</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E12" t="n">
-        <v>39.5</v>
+        <v>35.2</v>
       </c>
       <c r="F12" t="n">
         <v>0.2</v>
       </c>
       <c r="G12" t="n">
-        <v>51.1</v>
+        <v>52</v>
       </c>
       <c r="H12" t="n">
-        <v>18.5</v>
+        <v>21.3</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K12" t="n">
         <v>0.4</v>
@@ -915,28 +915,28 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B13" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C13" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D13" t="n">
         <v>0.6</v>
       </c>
       <c r="E13" t="n">
-        <v>36.3</v>
+        <v>41.4</v>
       </c>
       <c r="F13" t="n">
         <v>0.1</v>
       </c>
       <c r="G13" t="n">
-        <v>50.3</v>
+        <v>50.2</v>
       </c>
       <c r="H13" t="n">
-        <v>21.3</v>
+        <v>19.1</v>
       </c>
       <c r="I13" t="n">
         <v>7</v>
@@ -953,34 +953,34 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D14" t="n">
         <v>0.6</v>
       </c>
       <c r="E14" t="n">
-        <v>38.6</v>
+        <v>39.7</v>
       </c>
       <c r="F14" t="n">
         <v>0.1</v>
       </c>
       <c r="G14" t="n">
-        <v>53.1</v>
+        <v>51.3</v>
       </c>
       <c r="H14" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="I14" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J14" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K14" t="n">
         <v>0.4</v>
@@ -991,31 +991,31 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15" t="n">
         <v>25</v>
       </c>
       <c r="C15" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E15" t="n">
-        <v>39.9</v>
+        <v>41.5</v>
       </c>
       <c r="F15" t="n">
         <v>0.2</v>
       </c>
       <c r="G15" t="n">
-        <v>50.8</v>
+        <v>53.4</v>
       </c>
       <c r="H15" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="I15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J15" t="n">
         <v>0.9</v>
@@ -1029,34 +1029,34 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="n">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D16" t="n">
         <v>0.6</v>
       </c>
       <c r="E16" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G16" t="n">
-        <v>48.7</v>
+        <v>52.8</v>
       </c>
       <c r="H16" t="n">
-        <v>21</v>
+        <v>20.2</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J16" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K16" t="n">
         <v>0.4</v>
@@ -1067,31 +1067,31 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B17" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C17" t="n">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E17" t="n">
-        <v>42.1</v>
+        <v>39.5</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G17" t="n">
-        <v>50.8</v>
+        <v>52.7</v>
       </c>
       <c r="H17" t="n">
-        <v>20</v>
+        <v>22.2</v>
       </c>
       <c r="I17" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J17" t="n">
         <v>0.8</v>
@@ -1105,34 +1105,34 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B18" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C18" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D18" t="n">
         <v>0.6</v>
       </c>
       <c r="E18" t="n">
-        <v>39.3</v>
+        <v>38.3</v>
       </c>
       <c r="F18" t="n">
         <v>0.2</v>
       </c>
       <c r="G18" t="n">
-        <v>50.9</v>
+        <v>51.4</v>
       </c>
       <c r="H18" t="n">
-        <v>20.6</v>
+        <v>18.3</v>
       </c>
       <c r="I18" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J18" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K18" t="n">
         <v>0.4</v>
@@ -1143,31 +1143,31 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E19" t="n">
-        <v>41.6</v>
+        <v>40.8</v>
       </c>
       <c r="F19" t="n">
         <v>0.1</v>
       </c>
       <c r="G19" t="n">
-        <v>51.1</v>
+        <v>51.3</v>
       </c>
       <c r="H19" t="n">
-        <v>18.5</v>
+        <v>20.3</v>
       </c>
       <c r="I19" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J19" t="n">
         <v>0.9</v>
@@ -1187,25 +1187,25 @@
         <v>24</v>
       </c>
       <c r="C20" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E20" t="n">
-        <v>40.1</v>
+        <v>39.4</v>
       </c>
       <c r="F20" t="n">
         <v>0.2</v>
       </c>
       <c r="G20" t="n">
-        <v>50.3</v>
+        <v>51.7</v>
       </c>
       <c r="H20" t="n">
-        <v>18.4</v>
+        <v>19.9</v>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
         <v>0.8</v>
@@ -1219,31 +1219,31 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="n">
         <v>81</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E21" t="n">
-        <v>38</v>
+        <v>41.3</v>
       </c>
       <c r="F21" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G21" t="n">
-        <v>53.6</v>
+        <v>51.7</v>
       </c>
       <c r="H21" t="n">
-        <v>19.6</v>
+        <v>18.7</v>
       </c>
       <c r="I21" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
         <v>0.9</v>
@@ -1257,31 +1257,31 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D22" t="n">
         <v>0.6</v>
       </c>
       <c r="E22" t="n">
-        <v>39.5</v>
+        <v>40.1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G22" t="n">
-        <v>50.8</v>
+        <v>50</v>
       </c>
       <c r="H22" t="n">
-        <v>21.7</v>
+        <v>20</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
         <v>0.8</v>
@@ -1295,31 +1295,31 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B23" t="n">
         <v>24</v>
       </c>
       <c r="C23" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="E23" t="n">
-        <v>37.5</v>
+        <v>41.2</v>
       </c>
       <c r="F23" t="n">
         <v>0.2</v>
       </c>
       <c r="G23" t="n">
-        <v>50.8</v>
+        <v>51.4</v>
       </c>
       <c r="H23" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J23" t="n">
         <v>0.9</v>
@@ -1339,28 +1339,28 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E24" t="n">
-        <v>38.9</v>
+        <v>43.6</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G24" t="n">
-        <v>51.9</v>
+        <v>51.2</v>
       </c>
       <c r="H24" t="n">
-        <v>18.6</v>
+        <v>19.4</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="J24" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K24" t="n">
         <v>0.4</v>
@@ -1371,7 +1371,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B25" t="n">
         <v>25</v>
@@ -1383,19 +1383,19 @@
         <v>0.6</v>
       </c>
       <c r="E25" t="n">
-        <v>39.3</v>
+        <v>39.5</v>
       </c>
       <c r="F25" t="n">
         <v>0.1</v>
       </c>
       <c r="G25" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H25" t="n">
-        <v>20.5</v>
+        <v>19.6</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J25" t="n">
         <v>0.9</v>
@@ -1409,34 +1409,34 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B26" t="n">
         <v>22</v>
       </c>
       <c r="C26" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E26" t="n">
-        <v>39.1</v>
+        <v>42.1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G26" t="n">
-        <v>51.8</v>
+        <v>52.6</v>
       </c>
       <c r="H26" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="I26" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="J26" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K26" t="n">
         <v>0.4</v>
@@ -1447,31 +1447,31 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B27" t="n">
         <v>24</v>
       </c>
       <c r="C27" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D27" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E27" t="n">
-        <v>38.5</v>
+        <v>39.9</v>
       </c>
       <c r="F27" t="n">
         <v>0.2</v>
       </c>
       <c r="G27" t="n">
-        <v>50.9</v>
+        <v>50.5</v>
       </c>
       <c r="H27" t="n">
-        <v>20.4</v>
+        <v>20.1</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J27" t="n">
         <v>0.9</v>
@@ -1488,31 +1488,31 @@
         <v>64</v>
       </c>
       <c r="B28" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C28" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D28" t="n">
         <v>0.6</v>
       </c>
       <c r="E28" t="n">
-        <v>38.3</v>
+        <v>41.3</v>
       </c>
       <c r="F28" t="n">
         <v>0.2</v>
       </c>
       <c r="G28" t="n">
-        <v>52.8</v>
+        <v>51.1</v>
       </c>
       <c r="H28" t="n">
-        <v>17.9</v>
+        <v>22.2</v>
       </c>
       <c r="I28" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="J28" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K28" t="n">
         <v>0.4</v>
@@ -1529,25 +1529,25 @@
         <v>24</v>
       </c>
       <c r="C29" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D29" t="n">
         <v>0.6</v>
       </c>
       <c r="E29" t="n">
-        <v>38.5</v>
+        <v>41.9</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G29" t="n">
-        <v>52.4</v>
+        <v>50.8</v>
       </c>
       <c r="H29" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="I29" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J29" t="n">
         <v>0.8</v>
@@ -1564,31 +1564,31 @@
         <v>62</v>
       </c>
       <c r="B30" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C30" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D30" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E30" t="n">
-        <v>39.3</v>
+        <v>37.3</v>
       </c>
       <c r="F30" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G30" t="n">
-        <v>52.5</v>
+        <v>51.4</v>
       </c>
       <c r="H30" t="n">
-        <v>20.3</v>
+        <v>19.1</v>
       </c>
       <c r="I30" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J30" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K30" t="n">
         <v>0.4</v>
@@ -1605,25 +1605,25 @@
         <v>24</v>
       </c>
       <c r="C31" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D31" t="n">
         <v>0.6</v>
       </c>
       <c r="E31" t="n">
-        <v>39.1</v>
+        <v>41.1</v>
       </c>
       <c r="F31" t="n">
         <v>0.2</v>
       </c>
       <c r="G31" t="n">
-        <v>49.9</v>
+        <v>51.7</v>
       </c>
       <c r="H31" t="n">
-        <v>19.4</v>
+        <v>20.6</v>
       </c>
       <c r="I31" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="J31" t="n">
         <v>0.8</v>
@@ -1637,31 +1637,31 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B32" t="n">
         <v>25</v>
       </c>
       <c r="C32" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D32" t="n">
         <v>0.6</v>
       </c>
       <c r="E32" t="n">
-        <v>42.3</v>
+        <v>41.1</v>
       </c>
       <c r="F32" t="n">
         <v>0.2</v>
       </c>
       <c r="G32" t="n">
-        <v>51.8</v>
+        <v>51.7</v>
       </c>
       <c r="H32" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="I32" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J32" t="n">
         <v>0.9</v>
@@ -1675,7 +1675,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B33" t="n">
         <v>25</v>
@@ -1684,25 +1684,25 @@
         <v>80</v>
       </c>
       <c r="D33" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E33" t="n">
-        <v>42.5</v>
+        <v>39.8</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G33" t="n">
-        <v>50.8</v>
+        <v>52.1</v>
       </c>
       <c r="H33" t="n">
-        <v>19.1</v>
+        <v>20.9</v>
       </c>
       <c r="I33" t="n">
         <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K33" t="n">
         <v>0.4</v>
@@ -1719,28 +1719,28 @@
         <v>24</v>
       </c>
       <c r="C34" t="n">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D34" t="n">
         <v>0.6</v>
       </c>
       <c r="E34" t="n">
-        <v>39.7</v>
+        <v>38.6</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G34" t="n">
-        <v>51.8</v>
+        <v>52.6</v>
       </c>
       <c r="H34" t="n">
-        <v>19.7</v>
+        <v>18.7</v>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J34" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K34" t="n">
         <v>0.4</v>
@@ -1757,28 +1757,28 @@
         <v>25</v>
       </c>
       <c r="C35" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D35" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E35" t="n">
-        <v>42.6</v>
+        <v>41</v>
       </c>
       <c r="F35" t="n">
         <v>0.2</v>
       </c>
       <c r="G35" t="n">
-        <v>51.2</v>
+        <v>51.5</v>
       </c>
       <c r="H35" t="n">
-        <v>18.6</v>
+        <v>19.6</v>
       </c>
       <c r="I35" t="n">
         <v>15</v>
       </c>
       <c r="J35" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K35" t="n">
         <v>0.4</v>
@@ -1789,31 +1789,31 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B36" t="n">
         <v>23</v>
       </c>
       <c r="C36" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D36" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E36" t="n">
-        <v>40.1</v>
+        <v>38.8</v>
       </c>
       <c r="F36" t="n">
         <v>0.1</v>
       </c>
       <c r="G36" t="n">
-        <v>52.2</v>
+        <v>51.1</v>
       </c>
       <c r="H36" t="n">
-        <v>19.9</v>
+        <v>20.6</v>
       </c>
       <c r="I36" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
         <v>0.9</v>
@@ -1827,34 +1827,34 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B37" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C37" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E37" t="n">
-        <v>41.6</v>
+        <v>38.4</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G37" t="n">
-        <v>51.7</v>
+        <v>53.1</v>
       </c>
       <c r="H37" t="n">
-        <v>19.6</v>
+        <v>19.8</v>
       </c>
       <c r="I37" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J37" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K37" t="n">
         <v>0.4</v>
@@ -1871,28 +1871,28 @@
         <v>23</v>
       </c>
       <c r="C38" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D38" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E38" t="n">
-        <v>39.1</v>
+        <v>41.6</v>
       </c>
       <c r="F38" t="n">
         <v>0.1</v>
       </c>
       <c r="G38" t="n">
-        <v>52.9</v>
+        <v>51.7</v>
       </c>
       <c r="H38" t="n">
-        <v>21.6</v>
+        <v>19.9</v>
       </c>
       <c r="I38" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="J38" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K38" t="n">
         <v>0.4</v>
@@ -1903,31 +1903,31 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B39" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C39" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D39" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E39" t="n">
-        <v>42</v>
+        <v>39.7</v>
       </c>
       <c r="F39" t="n">
         <v>0.1</v>
       </c>
       <c r="G39" t="n">
-        <v>50.3</v>
+        <v>51.6</v>
       </c>
       <c r="H39" t="n">
         <v>19.4</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="J39" t="n">
         <v>0.9</v>
@@ -1941,31 +1941,31 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B40" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C40" t="n">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D40" t="n">
         <v>0.6</v>
       </c>
       <c r="E40" t="n">
-        <v>39.9</v>
+        <v>40.3</v>
       </c>
       <c r="F40" t="n">
         <v>0.1</v>
       </c>
       <c r="G40" t="n">
-        <v>52.1</v>
+        <v>52.9</v>
       </c>
       <c r="H40" t="n">
-        <v>17.9</v>
+        <v>20.2</v>
       </c>
       <c r="I40" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J40" t="n">
         <v>0.9</v>
@@ -1979,7 +1979,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B41" t="n">
         <v>24</v>
@@ -1988,25 +1988,25 @@
         <v>83</v>
       </c>
       <c r="D41" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E41" t="n">
-        <v>39.8</v>
+        <v>37.1</v>
       </c>
       <c r="F41" t="n">
         <v>0.1</v>
       </c>
       <c r="G41" t="n">
-        <v>53.1</v>
+        <v>52.2</v>
       </c>
       <c r="H41" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K41" t="n">
         <v>0.4</v>
@@ -2020,28 +2020,28 @@
         <v>62</v>
       </c>
       <c r="B42" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C42" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D42" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E42" t="n">
-        <v>40.2</v>
+        <v>40.3</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G42" t="n">
-        <v>49.8</v>
+        <v>51.1</v>
       </c>
       <c r="H42" t="n">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J42" t="n">
         <v>0.9</v>
@@ -2055,31 +2055,31 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B43" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C43" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D43" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E43" t="n">
-        <v>40.6</v>
+        <v>40.9</v>
       </c>
       <c r="F43" t="n">
         <v>0.2</v>
       </c>
       <c r="G43" t="n">
-        <v>52.1</v>
+        <v>51</v>
       </c>
       <c r="H43" t="n">
-        <v>21</v>
+        <v>20.4</v>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J43" t="n">
         <v>0.8</v>
@@ -2093,34 +2093,34 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B44" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C44" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D44" t="n">
         <v>0.6</v>
       </c>
       <c r="E44" t="n">
-        <v>39.5</v>
+        <v>40.5</v>
       </c>
       <c r="F44" t="n">
         <v>0.2</v>
       </c>
       <c r="G44" t="n">
-        <v>50</v>
+        <v>50.9</v>
       </c>
       <c r="H44" t="n">
-        <v>20.2</v>
+        <v>19.3</v>
       </c>
       <c r="I44" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J44" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K44" t="n">
         <v>0.4</v>
@@ -2131,31 +2131,31 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B45" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C45" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D45" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E45" t="n">
-        <v>39</v>
+        <v>40.2</v>
       </c>
       <c r="F45" t="n">
         <v>0.2</v>
       </c>
       <c r="G45" t="n">
-        <v>53.5</v>
+        <v>51.2</v>
       </c>
       <c r="H45" t="n">
-        <v>20.9</v>
+        <v>19</v>
       </c>
       <c r="I45" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J45" t="n">
         <v>0.8</v>
@@ -2169,31 +2169,31 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B46" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C46" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D46" t="n">
         <v>0.6</v>
       </c>
       <c r="E46" t="n">
-        <v>41.8</v>
+        <v>44.6</v>
       </c>
       <c r="F46" t="n">
         <v>0.1</v>
       </c>
       <c r="G46" t="n">
-        <v>50.5</v>
+        <v>50.7</v>
       </c>
       <c r="H46" t="n">
-        <v>20.5</v>
+        <v>22.5</v>
       </c>
       <c r="I46" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J46" t="n">
         <v>0.8</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B47" t="n">
         <v>22</v>
@@ -2219,19 +2219,19 @@
         <v>0.6</v>
       </c>
       <c r="E47" t="n">
-        <v>44.3</v>
+        <v>42.5</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="G47" t="n">
-        <v>51.2</v>
+        <v>50.3</v>
       </c>
       <c r="H47" t="n">
-        <v>19.1</v>
+        <v>20.4</v>
       </c>
       <c r="I47" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J47" t="n">
         <v>0.9</v>
@@ -2245,34 +2245,34 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B48" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C48" t="n">
         <v>84</v>
       </c>
       <c r="D48" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E48" t="n">
-        <v>40.1</v>
+        <v>39.6</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G48" t="n">
-        <v>49.8</v>
+        <v>52.9</v>
       </c>
       <c r="H48" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="I48" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J48" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K48" t="n">
         <v>0.4</v>
@@ -2283,34 +2283,34 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B49" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C49" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D49" t="n">
         <v>0.5</v>
       </c>
       <c r="E49" t="n">
-        <v>40.1</v>
+        <v>39.4</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G49" t="n">
-        <v>50.1</v>
+        <v>52.3</v>
       </c>
       <c r="H49" t="n">
-        <v>20</v>
+        <v>19.7</v>
       </c>
       <c r="I49" t="n">
         <v>6</v>
       </c>
       <c r="J49" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K49" t="n">
         <v>0.4</v>
@@ -2327,25 +2327,25 @@
         <v>24</v>
       </c>
       <c r="C50" t="n">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D50" t="n">
         <v>0.6</v>
       </c>
       <c r="E50" t="n">
-        <v>36.3</v>
+        <v>39.8</v>
       </c>
       <c r="F50" t="n">
         <v>0.1</v>
       </c>
       <c r="G50" t="n">
-        <v>50.2</v>
+        <v>52.4</v>
       </c>
       <c r="H50" t="n">
-        <v>20.9</v>
+        <v>20.2</v>
       </c>
       <c r="I50" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J50" t="n">
         <v>0.9</v>
@@ -2359,28 +2359,28 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B51" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C51" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D51" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="E51" t="n">
-        <v>38.4</v>
+        <v>41.6</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="G51" t="n">
-        <v>53.5</v>
+        <v>51.1</v>
       </c>
       <c r="H51" t="n">
-        <v>18.7</v>
+        <v>21.4</v>
       </c>
       <c r="I51" t="n">
         <v>12</v>
@@ -2397,34 +2397,34 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B52" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C52" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D52" t="n">
         <v>0.6</v>
       </c>
       <c r="E52" t="n">
-        <v>42.1</v>
+        <v>42.3</v>
       </c>
       <c r="F52" t="n">
         <v>0.1</v>
       </c>
       <c r="G52" t="n">
-        <v>94.40000000000001</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="H52" t="n">
-        <v>28.5</v>
+        <v>30.4</v>
       </c>
       <c r="I52" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J52" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K52" t="n">
         <v>0.4</v>
@@ -2435,31 +2435,31 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B53" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C53" t="n">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D53" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E53" t="n">
-        <v>38</v>
+        <v>40.8</v>
       </c>
       <c r="F53" t="n">
         <v>0.1</v>
       </c>
       <c r="G53" t="n">
-        <v>94.8</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="H53" t="n">
-        <v>30.6</v>
+        <v>29.3</v>
       </c>
       <c r="I53" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J53" t="n">
         <v>0.8</v>
@@ -2473,34 +2473,34 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B54" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C54" t="n">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D54" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E54" t="n">
-        <v>42</v>
+        <v>38.3</v>
       </c>
       <c r="F54" t="n">
         <v>0.1</v>
       </c>
       <c r="G54" t="n">
-        <v>92.59999999999999</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="H54" t="n">
-        <v>32.1</v>
+        <v>27.4</v>
       </c>
       <c r="I54" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J54" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K54" t="n">
         <v>0.4</v>
@@ -2511,34 +2511,34 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B55" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C55" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D55" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E55" t="n">
-        <v>36.5</v>
+        <v>42.7</v>
       </c>
       <c r="F55" t="n">
         <v>0.1</v>
       </c>
       <c r="G55" t="n">
-        <v>96.8</v>
+        <v>95</v>
       </c>
       <c r="H55" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="I55" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J55" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K55" t="n">
         <v>0.4</v>
@@ -2549,34 +2549,34 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B56" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C56" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D56" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E56" t="n">
-        <v>39</v>
+        <v>39.8</v>
       </c>
       <c r="F56" t="n">
         <v>0.1</v>
       </c>
       <c r="G56" t="n">
-        <v>93.59999999999999</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="H56" t="n">
-        <v>31.8</v>
+        <v>30.8</v>
       </c>
       <c r="I56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K56" t="n">
         <v>0.4</v>
@@ -2590,10 +2590,10 @@
         <v>47</v>
       </c>
       <c r="B57" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C57" t="n">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D57" t="n">
         <v>0.6</v>
@@ -2605,13 +2605,13 @@
         <v>0.1</v>
       </c>
       <c r="G57" t="n">
-        <v>94.5</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="H57" t="n">
-        <v>29.9</v>
+        <v>29.6</v>
       </c>
       <c r="I57" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J57" t="n">
         <v>0.9</v>
@@ -2625,34 +2625,34 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B58" t="n">
         <v>23</v>
       </c>
       <c r="C58" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D58" t="n">
         <v>0.6</v>
       </c>
       <c r="E58" t="n">
-        <v>39.1</v>
+        <v>39</v>
       </c>
       <c r="F58" t="n">
         <v>0.1</v>
       </c>
       <c r="G58" t="n">
-        <v>94.2</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="H58" t="n">
-        <v>29.3</v>
+        <v>29.7</v>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J58" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K58" t="n">
         <v>0.4</v>
@@ -2663,7 +2663,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B59" t="n">
         <v>24</v>
@@ -2675,22 +2675,22 @@
         <v>0.6</v>
       </c>
       <c r="E59" t="n">
-        <v>37.3</v>
+        <v>38.9</v>
       </c>
       <c r="F59" t="n">
         <v>0.1</v>
       </c>
       <c r="G59" t="n">
-        <v>95</v>
+        <v>95.2</v>
       </c>
       <c r="H59" t="n">
-        <v>27.9</v>
+        <v>31</v>
       </c>
       <c r="I59" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J59" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K59" t="n">
         <v>0.4</v>
@@ -2713,16 +2713,16 @@
         <v>0.6</v>
       </c>
       <c r="E60" t="n">
-        <v>42.1</v>
+        <v>37.9</v>
       </c>
       <c r="F60" t="n">
         <v>0.1</v>
       </c>
       <c r="G60" t="n">
-        <v>94.90000000000001</v>
+        <v>96</v>
       </c>
       <c r="H60" t="n">
-        <v>28.4</v>
+        <v>29.8</v>
       </c>
       <c r="I60" t="n">
         <v>15</v>
@@ -2739,34 +2739,34 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B61" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C61" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D61" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E61" t="n">
-        <v>39.3</v>
+        <v>39.8</v>
       </c>
       <c r="F61" t="n">
         <v>0.1</v>
       </c>
       <c r="G61" t="n">
-        <v>93.5</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="H61" t="n">
-        <v>30.4</v>
+        <v>30.5</v>
       </c>
       <c r="I61" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="J61" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K61" t="n">
         <v>0.4</v>
@@ -2780,31 +2780,31 @@
         <v>47</v>
       </c>
       <c r="B62" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C62" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D62" t="n">
         <v>0.6</v>
       </c>
       <c r="E62" t="n">
-        <v>42.2</v>
+        <v>41.7</v>
       </c>
       <c r="F62" t="n">
         <v>0.1</v>
       </c>
       <c r="G62" t="n">
-        <v>94.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="H62" t="n">
-        <v>29</v>
+        <v>29.8</v>
       </c>
       <c r="I62" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J62" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K62" t="n">
         <v>0.4</v>
@@ -2821,28 +2821,28 @@
         <v>23</v>
       </c>
       <c r="C63" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D63" t="n">
         <v>0.6</v>
       </c>
       <c r="E63" t="n">
-        <v>38</v>
+        <v>41.1</v>
       </c>
       <c r="F63" t="n">
         <v>0.1</v>
       </c>
       <c r="G63" t="n">
-        <v>94.09999999999999</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="H63" t="n">
-        <v>31.3</v>
+        <v>30.4</v>
       </c>
       <c r="I63" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J63" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K63" t="n">
         <v>0.4</v>
@@ -2853,34 +2853,34 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B64" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C64" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D64" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E64" t="n">
-        <v>44.2</v>
+        <v>37.8</v>
       </c>
       <c r="F64" t="n">
         <v>0.1</v>
       </c>
       <c r="G64" t="n">
-        <v>93.59999999999999</v>
+        <v>94.2</v>
       </c>
       <c r="H64" t="n">
-        <v>29.6</v>
+        <v>30.1</v>
       </c>
       <c r="I64" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J64" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K64" t="n">
         <v>0.4</v>
@@ -2891,31 +2891,31 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B65" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C65" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D65" t="n">
         <v>0.6</v>
       </c>
       <c r="E65" t="n">
-        <v>41.4</v>
+        <v>38.1</v>
       </c>
       <c r="F65" t="n">
         <v>0.1</v>
       </c>
       <c r="G65" t="n">
-        <v>95.40000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="H65" t="n">
-        <v>30.1</v>
+        <v>28.7</v>
       </c>
       <c r="I65" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J65" t="n">
         <v>0.9</v>
@@ -2929,10 +2929,10 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B66" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C66" t="n">
         <v>80</v>
@@ -2941,19 +2941,19 @@
         <v>0.6</v>
       </c>
       <c r="E66" t="n">
-        <v>43.7</v>
+        <v>41</v>
       </c>
       <c r="F66" t="n">
         <v>0.1</v>
       </c>
       <c r="G66" t="n">
-        <v>93.7</v>
+        <v>96</v>
       </c>
       <c r="H66" t="n">
-        <v>28.4</v>
+        <v>30.3</v>
       </c>
       <c r="I66" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J66" t="n">
         <v>0.8</v>
@@ -2967,34 +2967,34 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B67" t="n">
         <v>24</v>
       </c>
       <c r="C67" t="n">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D67" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E67" t="n">
-        <v>39</v>
+        <v>39.9</v>
       </c>
       <c r="F67" t="n">
         <v>0.1</v>
       </c>
       <c r="G67" t="n">
-        <v>96.09999999999999</v>
+        <v>94.3</v>
       </c>
       <c r="H67" t="n">
         <v>29.6</v>
       </c>
       <c r="I67" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J67" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K67" t="n">
         <v>0.4</v>
@@ -3005,34 +3005,34 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B68" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D68" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E68" t="n">
-        <v>41</v>
+        <v>37.7</v>
       </c>
       <c r="F68" t="n">
         <v>0.1</v>
       </c>
       <c r="G68" t="n">
-        <v>93.59999999999999</v>
+        <v>94.7</v>
       </c>
       <c r="H68" t="n">
-        <v>28.6</v>
+        <v>30</v>
       </c>
       <c r="I68" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J68" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K68" t="n">
         <v>0.4</v>
@@ -3049,28 +3049,28 @@
         <v>24</v>
       </c>
       <c r="C69" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D69" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E69" t="n">
-        <v>37.6</v>
+        <v>38.5</v>
       </c>
       <c r="F69" t="n">
         <v>0.1</v>
       </c>
       <c r="G69" t="n">
-        <v>94.90000000000001</v>
+        <v>94.5</v>
       </c>
       <c r="H69" t="n">
-        <v>31.5</v>
+        <v>29.7</v>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J69" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K69" t="n">
         <v>0.4</v>
@@ -3084,31 +3084,31 @@
         <v>48</v>
       </c>
       <c r="B70" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C70" t="n">
         <v>81</v>
       </c>
       <c r="D70" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E70" t="n">
-        <v>37.6</v>
+        <v>36.8</v>
       </c>
       <c r="F70" t="n">
         <v>0.1</v>
       </c>
       <c r="G70" t="n">
-        <v>94.8</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="H70" t="n">
-        <v>33.1</v>
+        <v>30.8</v>
       </c>
       <c r="I70" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J70" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K70" t="n">
         <v>0.4</v>
@@ -3119,10 +3119,10 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B71" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C71" t="n">
         <v>79</v>
@@ -3131,22 +3131,22 @@
         <v>0.6</v>
       </c>
       <c r="E71" t="n">
-        <v>41.1</v>
+        <v>42.1</v>
       </c>
       <c r="F71" t="n">
         <v>0.1</v>
       </c>
       <c r="G71" t="n">
-        <v>94.90000000000001</v>
+        <v>95.3</v>
       </c>
       <c r="H71" t="n">
-        <v>28.7</v>
+        <v>31.1</v>
       </c>
       <c r="I71" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="J71" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K71" t="n">
         <v>0.4</v>
@@ -3157,31 +3157,31 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B72" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C72" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D72" t="n">
         <v>0.6</v>
       </c>
       <c r="E72" t="n">
-        <v>38.9</v>
+        <v>42</v>
       </c>
       <c r="F72" t="n">
         <v>0.1</v>
       </c>
       <c r="G72" t="n">
-        <v>93.90000000000001</v>
+        <v>96.2</v>
       </c>
       <c r="H72" t="n">
         <v>30</v>
       </c>
       <c r="I72" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J72" t="n">
         <v>0.9</v>
@@ -3198,28 +3198,28 @@
         <v>48</v>
       </c>
       <c r="B73" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C73" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D73" t="n">
         <v>0.6</v>
       </c>
       <c r="E73" t="n">
-        <v>40.4</v>
+        <v>40.5</v>
       </c>
       <c r="F73" t="n">
         <v>0.1</v>
       </c>
       <c r="G73" t="n">
-        <v>94.90000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="H73" t="n">
-        <v>30.9</v>
+        <v>31.3</v>
       </c>
       <c r="I73" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J73" t="n">
         <v>0.8</v>
@@ -3233,31 +3233,31 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B74" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C74" t="n">
         <v>83</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E74" t="n">
-        <v>41.1</v>
+        <v>40.4</v>
       </c>
       <c r="F74" t="n">
         <v>0.1</v>
       </c>
       <c r="G74" t="n">
-        <v>95</v>
+        <v>95.2</v>
       </c>
       <c r="H74" t="n">
-        <v>29.1</v>
+        <v>31.2</v>
       </c>
       <c r="I74" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="J74" t="n">
         <v>0.8</v>
@@ -3271,31 +3271,31 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B75" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C75" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D75" t="n">
         <v>0.6</v>
       </c>
       <c r="E75" t="n">
-        <v>39.5</v>
+        <v>40.6</v>
       </c>
       <c r="F75" t="n">
         <v>0.1</v>
       </c>
       <c r="G75" t="n">
-        <v>94.3</v>
+        <v>96.3</v>
       </c>
       <c r="H75" t="n">
-        <v>29.6</v>
+        <v>30</v>
       </c>
       <c r="I75" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J75" t="n">
         <v>0.9</v>
@@ -3309,31 +3309,31 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B76" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C76" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D76" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E76" t="n">
-        <v>38.1</v>
+        <v>40.6</v>
       </c>
       <c r="F76" t="n">
         <v>0.1</v>
       </c>
       <c r="G76" t="n">
-        <v>94.09999999999999</v>
+        <v>93.8</v>
       </c>
       <c r="H76" t="n">
-        <v>29.4</v>
+        <v>28.8</v>
       </c>
       <c r="I76" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J76" t="n">
         <v>0.8</v>
@@ -3347,34 +3347,34 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B77" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C77" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D77" t="n">
         <v>0.6</v>
       </c>
       <c r="E77" t="n">
-        <v>39.7</v>
+        <v>40.7</v>
       </c>
       <c r="F77" t="n">
         <v>0.1</v>
       </c>
       <c r="G77" t="n">
-        <v>96.7</v>
+        <v>96.2</v>
       </c>
       <c r="H77" t="n">
-        <v>30.3</v>
+        <v>29.8</v>
       </c>
       <c r="I77" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J77" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K77" t="n">
         <v>0.4</v>
@@ -3385,31 +3385,31 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B78" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C78" t="n">
         <v>82</v>
       </c>
       <c r="D78" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E78" t="n">
-        <v>35.8</v>
+        <v>42.3</v>
       </c>
       <c r="F78" t="n">
         <v>0.1</v>
       </c>
       <c r="G78" t="n">
-        <v>94.59999999999999</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="H78" t="n">
-        <v>31.4</v>
+        <v>29.8</v>
       </c>
       <c r="I78" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J78" t="n">
         <v>0.8</v>
@@ -3423,34 +3423,34 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B79" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C79" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D79" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E79" t="n">
-        <v>37.6</v>
+        <v>38.2</v>
       </c>
       <c r="F79" t="n">
         <v>0.1</v>
       </c>
       <c r="G79" t="n">
-        <v>95.3</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="H79" t="n">
-        <v>30.7</v>
+        <v>31.1</v>
       </c>
       <c r="I79" t="n">
         <v>14</v>
       </c>
       <c r="J79" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K79" t="n">
         <v>0.4</v>
@@ -3461,31 +3461,31 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B80" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C80" t="n">
         <v>80</v>
       </c>
       <c r="D80" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E80" t="n">
-        <v>42.1</v>
+        <v>41.2</v>
       </c>
       <c r="F80" t="n">
         <v>0.1</v>
       </c>
       <c r="G80" t="n">
-        <v>95</v>
+        <v>92.7</v>
       </c>
       <c r="H80" t="n">
-        <v>30.2</v>
+        <v>29.1</v>
       </c>
       <c r="I80" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J80" t="n">
         <v>0.8</v>
@@ -3505,28 +3505,28 @@
         <v>24</v>
       </c>
       <c r="C81" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D81" t="n">
         <v>0.6</v>
       </c>
       <c r="E81" t="n">
-        <v>38</v>
+        <v>38.6</v>
       </c>
       <c r="F81" t="n">
         <v>0.1</v>
       </c>
       <c r="G81" t="n">
-        <v>94.3</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="H81" t="n">
-        <v>31.1</v>
+        <v>29.8</v>
       </c>
       <c r="I81" t="n">
         <v>9</v>
       </c>
       <c r="J81" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K81" t="n">
         <v>0.4</v>
@@ -3537,34 +3537,34 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B82" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C82" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D82" t="n">
         <v>0.6</v>
       </c>
       <c r="E82" t="n">
-        <v>42</v>
+        <v>38.2</v>
       </c>
       <c r="F82" t="n">
         <v>0.1</v>
       </c>
       <c r="G82" t="n">
-        <v>95.8</v>
+        <v>95.3</v>
       </c>
       <c r="H82" t="n">
-        <v>29.6</v>
+        <v>29.4</v>
       </c>
       <c r="I82" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="J82" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K82" t="n">
         <v>0.4</v>
@@ -3578,28 +3578,28 @@
         <v>48</v>
       </c>
       <c r="B83" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C83" t="n">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D83" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E83" t="n">
-        <v>43.6</v>
+        <v>38.9</v>
       </c>
       <c r="F83" t="n">
         <v>0.1</v>
       </c>
       <c r="G83" t="n">
-        <v>95</v>
+        <v>94.3</v>
       </c>
       <c r="H83" t="n">
-        <v>30.1</v>
+        <v>29.4</v>
       </c>
       <c r="I83" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="J83" t="n">
         <v>0.8</v>
@@ -3613,31 +3613,31 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B84" t="n">
         <v>25</v>
       </c>
       <c r="C84" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D84" t="n">
         <v>0.6</v>
       </c>
       <c r="E84" t="n">
-        <v>40.4</v>
+        <v>38.5</v>
       </c>
       <c r="F84" t="n">
         <v>0.1</v>
       </c>
       <c r="G84" t="n">
-        <v>95.3</v>
+        <v>95</v>
       </c>
       <c r="H84" t="n">
-        <v>31.8</v>
+        <v>29.1</v>
       </c>
       <c r="I84" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J84" t="n">
         <v>0.8</v>
@@ -3651,34 +3651,34 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B85" t="n">
         <v>24</v>
       </c>
       <c r="C85" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D85" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E85" t="n">
-        <v>38.5</v>
+        <v>42</v>
       </c>
       <c r="F85" t="n">
         <v>0.1</v>
       </c>
       <c r="G85" t="n">
-        <v>96.2</v>
+        <v>94.8</v>
       </c>
       <c r="H85" t="n">
-        <v>31.3</v>
+        <v>31.2</v>
       </c>
       <c r="I85" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J85" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K85" t="n">
         <v>0.4</v>
@@ -3689,34 +3689,34 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B86" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C86" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D86" t="n">
         <v>0.6</v>
       </c>
       <c r="E86" t="n">
-        <v>39.2</v>
+        <v>39.5</v>
       </c>
       <c r="F86" t="n">
         <v>0.1</v>
       </c>
       <c r="G86" t="n">
-        <v>96.8</v>
+        <v>96.2</v>
       </c>
       <c r="H86" t="n">
-        <v>30.7</v>
+        <v>27.7</v>
       </c>
       <c r="I86" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J86" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K86" t="n">
         <v>0.4</v>
@@ -3727,34 +3727,34 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B87" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C87" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D87" t="n">
         <v>0.6</v>
       </c>
       <c r="E87" t="n">
-        <v>37.7</v>
+        <v>40.9</v>
       </c>
       <c r="F87" t="n">
         <v>0.1</v>
       </c>
       <c r="G87" t="n">
-        <v>94.90000000000001</v>
+        <v>95</v>
       </c>
       <c r="H87" t="n">
-        <v>28.8</v>
+        <v>30.3</v>
       </c>
       <c r="I87" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="J87" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K87" t="n">
         <v>0.4</v>
@@ -3765,10 +3765,10 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B88" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C88" t="n">
         <v>83</v>
@@ -3777,19 +3777,19 @@
         <v>0.6</v>
       </c>
       <c r="E88" t="n">
-        <v>38.9</v>
+        <v>42.1</v>
       </c>
       <c r="F88" t="n">
         <v>0.1</v>
       </c>
       <c r="G88" t="n">
-        <v>95.2</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="H88" t="n">
-        <v>28.9</v>
+        <v>30.8</v>
       </c>
       <c r="I88" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J88" t="n">
         <v>0.8</v>
@@ -3803,31 +3803,31 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B89" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C89" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D89" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E89" t="n">
-        <v>34.1</v>
+        <v>43.7</v>
       </c>
       <c r="F89" t="n">
         <v>0.1</v>
       </c>
       <c r="G89" t="n">
-        <v>94.59999999999999</v>
+        <v>96.5</v>
       </c>
       <c r="H89" t="n">
-        <v>28.1</v>
+        <v>31.3</v>
       </c>
       <c r="I89" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="J89" t="n">
         <v>0.9</v>
@@ -3841,34 +3841,34 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B90" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C90" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D90" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E90" t="n">
-        <v>41.8</v>
+        <v>38.9</v>
       </c>
       <c r="F90" t="n">
         <v>0.1</v>
       </c>
       <c r="G90" t="n">
-        <v>96.3</v>
+        <v>95.3</v>
       </c>
       <c r="H90" t="n">
-        <v>30.7</v>
+        <v>30</v>
       </c>
       <c r="I90" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J90" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K90" t="n">
         <v>0.4</v>
@@ -3879,31 +3879,31 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B91" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C91" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D91" t="n">
         <v>0.6</v>
       </c>
       <c r="E91" t="n">
-        <v>42.4</v>
+        <v>39.3</v>
       </c>
       <c r="F91" t="n">
         <v>0.1</v>
       </c>
       <c r="G91" t="n">
-        <v>95.2</v>
+        <v>92.7</v>
       </c>
       <c r="H91" t="n">
-        <v>28.8</v>
+        <v>30.3</v>
       </c>
       <c r="I91" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J91" t="n">
         <v>0.9</v>
@@ -3917,31 +3917,31 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B92" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C92" t="n">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D92" t="n">
         <v>0.6</v>
       </c>
       <c r="E92" t="n">
-        <v>35.7</v>
+        <v>37.3</v>
       </c>
       <c r="F92" t="n">
         <v>0.1</v>
       </c>
       <c r="G92" t="n">
-        <v>96.59999999999999</v>
+        <v>94.8</v>
       </c>
       <c r="H92" t="n">
-        <v>30.8</v>
+        <v>29.4</v>
       </c>
       <c r="I92" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J92" t="n">
         <v>0.9</v>
@@ -3955,31 +3955,31 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B93" t="n">
         <v>22</v>
       </c>
       <c r="C93" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D93" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E93" t="n">
-        <v>40.6</v>
+        <v>36.7</v>
       </c>
       <c r="F93" t="n">
         <v>0.1</v>
       </c>
       <c r="G93" t="n">
-        <v>94.8</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="H93" t="n">
-        <v>30.4</v>
+        <v>28.7</v>
       </c>
       <c r="I93" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="J93" t="n">
         <v>0.8</v>
@@ -3993,34 +3993,34 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B94" t="n">
         <v>24</v>
       </c>
       <c r="C94" t="n">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D94" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="E94" t="n">
-        <v>41.9</v>
+        <v>43.8</v>
       </c>
       <c r="F94" t="n">
         <v>0.1</v>
       </c>
       <c r="G94" t="n">
-        <v>96.2</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="H94" t="n">
-        <v>29.4</v>
+        <v>28</v>
       </c>
       <c r="I94" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J94" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K94" t="n">
         <v>0.4</v>
@@ -4034,31 +4034,31 @@
         <v>48</v>
       </c>
       <c r="B95" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C95" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D95" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E95" t="n">
-        <v>39.4</v>
+        <v>45.6</v>
       </c>
       <c r="F95" t="n">
         <v>0.1</v>
       </c>
       <c r="G95" t="n">
-        <v>94.8</v>
+        <v>96</v>
       </c>
       <c r="H95" t="n">
-        <v>31.3</v>
+        <v>28.8</v>
       </c>
       <c r="I95" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J95" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K95" t="n">
         <v>0.4</v>
@@ -4072,28 +4072,28 @@
         <v>47</v>
       </c>
       <c r="B96" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C96" t="n">
         <v>82</v>
       </c>
       <c r="D96" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E96" t="n">
-        <v>40.5</v>
+        <v>41.2</v>
       </c>
       <c r="F96" t="n">
         <v>0.1</v>
       </c>
       <c r="G96" t="n">
-        <v>93.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="H96" t="n">
-        <v>30.2</v>
+        <v>30.7</v>
       </c>
       <c r="I96" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J96" t="n">
         <v>0.9</v>
@@ -4110,31 +4110,31 @@
         <v>48</v>
       </c>
       <c r="B97" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C97" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D97" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="E97" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F97" t="n">
         <v>0.1</v>
       </c>
       <c r="G97" t="n">
-        <v>95.8</v>
+        <v>94.8</v>
       </c>
       <c r="H97" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I97" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="J97" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K97" t="n">
         <v>0.4</v>
@@ -4148,31 +4148,31 @@
         <v>48</v>
       </c>
       <c r="B98" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C98" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D98" t="n">
         <v>0.6</v>
       </c>
       <c r="E98" t="n">
-        <v>41.5</v>
+        <v>40.2</v>
       </c>
       <c r="F98" t="n">
         <v>0.1</v>
       </c>
       <c r="G98" t="n">
-        <v>95.59999999999999</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="H98" t="n">
-        <v>30.4</v>
+        <v>28.4</v>
       </c>
       <c r="I98" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J98" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K98" t="n">
         <v>0.4</v>
@@ -4183,34 +4183,34 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B99" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C99" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D99" t="n">
         <v>0.6</v>
       </c>
       <c r="E99" t="n">
-        <v>37.9</v>
+        <v>41.8</v>
       </c>
       <c r="F99" t="n">
         <v>0.1</v>
       </c>
       <c r="G99" t="n">
-        <v>94.2</v>
+        <v>95.2</v>
       </c>
       <c r="H99" t="n">
-        <v>29.2</v>
+        <v>30.7</v>
       </c>
       <c r="I99" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J99" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K99" t="n">
         <v>0.4</v>
@@ -4227,25 +4227,25 @@
         <v>25</v>
       </c>
       <c r="C100" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D100" t="n">
         <v>0.6</v>
       </c>
       <c r="E100" t="n">
-        <v>40.3</v>
+        <v>42.8</v>
       </c>
       <c r="F100" t="n">
         <v>0.1</v>
       </c>
       <c r="G100" t="n">
-        <v>96.3</v>
+        <v>92.7</v>
       </c>
       <c r="H100" t="n">
-        <v>30.7</v>
+        <v>28.6</v>
       </c>
       <c r="I100" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J100" t="n">
         <v>0.8</v>
@@ -4259,31 +4259,31 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B101" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C101" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D101" t="n">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E101" t="n">
-        <v>41.1</v>
+        <v>34.4</v>
       </c>
       <c r="F101" t="n">
         <v>0.1</v>
       </c>
       <c r="G101" t="n">
-        <v>94.59999999999999</v>
+        <v>94.3</v>
       </c>
       <c r="H101" t="n">
-        <v>29.9</v>
+        <v>29</v>
       </c>
       <c r="I101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J101" t="n">
         <v>0.8</v>
